--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_280__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_280__Reeval_Halton_Modell_1.1.xlsx
@@ -5990,40 +5990,40 @@
                   <c:v>54.59249114990234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.08289337158203</c:v>
+                  <c:v>51.0828971862793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.216120600700378</c:v>
+                  <c:v>1.216120719909668</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>38.56105041503906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.05390930175781</c:v>
+                  <c:v>80.05391693115234</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.21498680114746</c:v>
+                  <c:v>17.21498870849609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.3139476776123</c:v>
+                  <c:v>28.31394577026367</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.046614408493042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.444637417793274</c:v>
+                  <c:v>1.444637537002563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.64910888671875</c:v>
+                  <c:v>32.64910507202148</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42.28726577758789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.08357255905866623</c:v>
+                  <c:v>0.08357240259647369</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5453266501426697</c:v>
+                  <c:v>0.5453269481658936</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-0.4138109982013702</c:v>
@@ -6032,58 +6032,58 @@
                   <c:v>37.48822021484375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.122499585151672</c:v>
+                  <c:v>1.122499704360962</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.545249879360199</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.58130264282227</c:v>
+                  <c:v>44.581298828125</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.359304785728455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.225050210952759</c:v>
+                  <c:v>1.225050330162048</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.506591796875</c:v>
+                  <c:v>41.50659561157227</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7805580496788025</c:v>
+                  <c:v>0.7805582880973816</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.843395948410034</c:v>
+                  <c:v>2.843396186828613</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.497216105461121</c:v>
+                  <c:v>1.497215747833252</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.399084329605103</c:v>
+                  <c:v>1.399084210395813</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3679766058921814</c:v>
+                  <c:v>0.3679767847061157</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>49.0074348449707</c:v>
+                  <c:v>49.00744247436523</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45.99359893798828</c:v>
+                  <c:v>45.99358749389648</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1.359304785728455</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.226405501365662</c:v>
+                  <c:v>1.226405620574951</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.135022640228271</c:v>
+                  <c:v>1.135022759437561</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>39.59922790527344</c:v>
+                  <c:v>39.59920883178711</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.3805558979511261</c:v>
+                  <c:v>0.3805560767650604</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1.359304785728455</c:v>
@@ -6095,13 +6095,13 @@
                   <c:v>1.359304785728455</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4134075045585632</c:v>
+                  <c:v>0.4134076535701752</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.2263150066137314</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.188371300697327</c:v>
+                  <c:v>1.188371062278748</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>46.3000602722168</c:v>
@@ -6110,37 +6110,37 @@
                   <c:v>40.5808219909668</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.07846450805664</c:v>
+                  <c:v>42.07846832275391</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.12773323059082</c:v>
+                  <c:v>2.127732992172241</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.9476323127746582</c:v>
+                  <c:v>0.947632372379303</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.4872087240219116</c:v>
+                  <c:v>0.4872090518474579</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50.85101318359375</c:v>
+                  <c:v>50.85100936889648</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1.542869925498962</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.829992651939392</c:v>
+                  <c:v>1.829992413520813</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.383001327514648</c:v>
+                  <c:v>1.383001208305359</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>52.96683120727539</c:v>
+                  <c:v>52.96686172485352</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.596982002258301</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44.17495727539062</c:v>
+                  <c:v>44.17496490478516</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>71.23104095458984</c:v>
@@ -6152,25 +6152,25 @@
                   <c:v>52.06274795532227</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.3640620410442352</c:v>
+                  <c:v>0.3640618920326233</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>46.08295822143555</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.9956880807876587</c:v>
+                  <c:v>0.99568772315979</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.7334122657775879</c:v>
+                  <c:v>0.7334117293357849</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>45.75966644287109</c:v>
+                  <c:v>45.75967025756836</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1.167151212692261</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.402062654495239</c:v>
+                  <c:v>1.402062773704529</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1.359304785728455</c:v>
@@ -6185,34 +6185,34 @@
                   <c:v>0.7648381590843201</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>40.23974227905273</c:v>
+                  <c:v>40.23974609375</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>36.62945556640625</c:v>
+                  <c:v>36.62945938110352</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>41.51641464233398</c:v>
+                  <c:v>41.51639175415039</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42.10464096069336</c:v>
+                  <c:v>42.10464859008789</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43.91463470458984</c:v>
+                  <c:v>43.91464233398438</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>50.84505081176758</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>54.60354614257812</c:v>
+                  <c:v>54.60355758666992</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>51.47931289672852</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>40.17511749267578</c:v>
+                  <c:v>40.17511367797852</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.920978307723999</c:v>
+                  <c:v>0.9209785461425781</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>40.4582405090332</c:v>
@@ -6230,52 +6230,52 @@
                   <c:v>17.27201080322266</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>53.89566421508789</c:v>
+                  <c:v>53.89565277099609</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.988237023353577</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>45.91819763183594</c:v>
+                  <c:v>45.91820907592773</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>1.302093267440796</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.74144434928894</c:v>
+                  <c:v>1.741444230079651</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.189192414283752</c:v>
+                  <c:v>1.189192533493042</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>44.22492980957031</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.060950756072998</c:v>
+                  <c:v>1.060950994491577</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.9775587320327759</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>14.33066368103027</c:v>
+                  <c:v>14.33066558837891</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.2409093677997589</c:v>
+                  <c:v>0.240909218788147</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>49.72816848754883</c:v>
+                  <c:v>49.72816467285156</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>1.173694372177124</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.5936453342437744</c:v>
+                  <c:v>0.5936456322669983</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43.23344421386719</c:v>
+                  <c:v>43.23344802856445</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>50.56464385986328</c:v>
+                  <c:v>50.56466293334961</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>43.73358154296875</c:v>
@@ -7011,7 +7011,7 @@
         <v>29.3754</v>
       </c>
       <c r="F3">
-        <v>51.08289337158203</v>
+        <v>51.0828971862793</v>
       </c>
       <c r="G3">
         <v>95</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.216120600700378</v>
+        <v>1.216120719909668</v>
       </c>
       <c r="G4">
         <v>95</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>80.05390930175781</v>
+        <v>80.05391693115234</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.21498680114746</v>
+        <v>17.21498870849609</v>
       </c>
       <c r="G7">
         <v>95</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.3139476776123</v>
+        <v>28.31394577026367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.444637417793274</v>
+        <v>1.444637537002563</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.64910888671875</v>
+        <v>32.64910507202148</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.08357255905866623</v>
+        <v>0.08357240259647369</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5453266501426697</v>
+        <v>0.5453269481658936</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.122499585151672</v>
+        <v>1.122499704360962</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>43.6125</v>
       </c>
       <c r="F19">
-        <v>44.58130264282227</v>
+        <v>44.581298828125</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.225050210952759</v>
+        <v>1.225050330162048</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>29.7064</v>
       </c>
       <c r="F22">
-        <v>41.506591796875</v>
+        <v>41.50659561157227</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7805580496788025</v>
+        <v>0.7805582880973816</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>2.843395948410034</v>
+        <v>2.843396186828613</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.497216105461121</v>
+        <v>1.497215747833252</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.399084329605103</v>
+        <v>1.399084210395813</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.3679766058921814</v>
+        <v>0.3679767847061157</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>47.2576</v>
       </c>
       <c r="F28">
-        <v>49.0074348449707</v>
+        <v>49.00744247436523</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>53.1601</v>
       </c>
       <c r="F29">
-        <v>45.99359893798828</v>
+        <v>45.99358749389648</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.226405501365662</v>
+        <v>1.226405620574951</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.135022640228271</v>
+        <v>1.135022759437561</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>45.5077</v>
       </c>
       <c r="F33">
-        <v>39.59922790527344</v>
+        <v>39.59920883178711</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.3805558979511261</v>
+        <v>0.3805560767650604</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.4134075045585632</v>
+        <v>0.4134076535701752</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.188371300697327</v>
+        <v>1.188371062278748</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>43.2953</v>
       </c>
       <c r="F43">
-        <v>42.07846450805664</v>
+        <v>42.07846832275391</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>2.12773323059082</v>
+        <v>2.127732992172241</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.9476323127746582</v>
+        <v>0.947632372379303</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.4872087240219116</v>
+        <v>0.4872090518474579</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>50.85101318359375</v>
+        <v>50.85100936889648</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.829992651939392</v>
+        <v>1.829992413520813</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.383001327514648</v>
+        <v>1.383001208305359</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>46.2899</v>
       </c>
       <c r="F51">
-        <v>52.96683120727539</v>
+        <v>52.96686172485352</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>44.17495727539062</v>
+        <v>44.17496490478516</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.3640620410442352</v>
+        <v>0.3640618920326233</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.9956880807876587</v>
+        <v>0.99568772315979</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.7334122657775879</v>
+        <v>0.7334117293357849</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>46.8311</v>
       </c>
       <c r="F61">
-        <v>45.75966644287109</v>
+        <v>45.75967025756836</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.402062654495239</v>
+        <v>1.402062773704529</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>45.5274</v>
       </c>
       <c r="F68">
-        <v>40.23974227905273</v>
+        <v>40.23974609375</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>36.62945556640625</v>
+        <v>36.62945938110352</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>41.51641464233398</v>
+        <v>41.51639175415039</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>41.7128</v>
       </c>
       <c r="F71">
-        <v>42.10464096069336</v>
+        <v>42.10464859008789</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>43.91463470458984</v>
+        <v>43.91464233398438</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>51.5206</v>
       </c>
       <c r="F74">
-        <v>54.60354614257812</v>
+        <v>54.60355758666992</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>40.17511749267578</v>
+        <v>40.17511367797852</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.920978307723999</v>
+        <v>0.9209785461425781</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>55.7741</v>
       </c>
       <c r="F83">
-        <v>53.89566421508789</v>
+        <v>53.89565277099609</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>45.91819763183594</v>
+        <v>45.91820907592773</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>1.74144434928894</v>
+        <v>1.741444230079651</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.189192414283752</v>
+        <v>1.189192533493042</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.060950756072998</v>
+        <v>1.060950994491577</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>14.33066368103027</v>
+        <v>14.33066558837891</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.2409093677997589</v>
+        <v>0.240909218788147</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>49.72816848754883</v>
+        <v>49.72816467285156</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.5936453342437744</v>
+        <v>0.5936456322669983</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>46.3967</v>
       </c>
       <c r="F97">
-        <v>43.23344421386719</v>
+        <v>43.23344802856445</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>50.56464385986328</v>
+        <v>50.56466293334961</v>
       </c>
     </row>
     <row r="99" spans="1:6">
